--- a/src_samples/pile-spring-moaui/public/BaseSheet.xlsx
+++ b/src_samples/pile-spring-moaui/public/BaseSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIDAS\API\moaui\src_samples\pile-spring-moaui\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E7C5A3-AB1D-4698-96CF-3AE6610F9D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87E175-9A0B-4A63-9465-181FB6BEEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{01B45E7B-141C-42A5-8431-EE2C6BBF15A4}"/>
   </bookViews>
@@ -19970,7 +19970,7 @@
   <dimension ref="B1:BM430"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+      <selection activeCell="BR18" sqref="BR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
